--- a/biology/Botanique/Swartzia_guianensis/Swartzia_guianensis.xlsx
+++ b/biology/Botanique/Swartzia_guianensis/Swartzia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Swartzia guianensis est une espèce d'arbre néotropical, appartenant à la famille des Fabaceae. 
 Il s'agit du nom correct de l'espèce type du genre Swartzia Schreb..
-En Guyane, c'est une des espèces connues sous le nom de bois de fer. Au Suriname, on l'appelle paarse ijzerhart, et au Guyana, banya-type, itikiburoballi, Matope (Arawak)[2], Axeblunter, Marudi food (Créole), Warama, Asemunusi, Marasi ereparï (Carib)[3].
-Au Venezuela, on le nomme Dawadema, Majako shodo (Yekwana)[4].
+En Guyane, c'est une des espèces connues sous le nom de bois de fer. Au Suriname, on l'appelle paarse ijzerhart, et au Guyana, banya-type, itikiburoballi, Matope (Arawak), Axeblunter, Marudi food (Créole), Warama, Asemunusi, Marasi ereparï (Carib).
+Au Venezuela, on le nomme Dawadema, Majako shodo (Yekwana).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia leblondii R.S.Cowan, 1968 (synonyme de Swartzia guianensis (Aubl.) Urb.) est inscrit sur la liste des espèces protégées en Guyane[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia leblondii R.S.Cowan, 1968 (synonyme de Swartzia guianensis (Aubl.) Urb.) est inscrit sur la liste des espèces protégées en Guyane.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Swartzia guianensis est un arbre petit à moyen, haut de 6 à 16 m. Le tronc mesurant 7,5-30 cm de diamètre, développe des contreforts, et est recouvert d'une fine écorce, lisse et brune. Les rameaux sont strigilleux à l'apex. 
 Les feuilles sont composées, imparipennées, à rachis nettement ailé, à 5 folioles (les 2(3) paires de folioles latérales sont opposées).
@@ -565,7 +581,7 @@
 Les pétales sont absents.
 L'androcée se compose de 2 grandes étamines glabres ou légèrement strigilleux, avec un filet long d'environ 6 mm, et de petites étamines glabres avec un filet long d'environ 4 mm.
 Le gynécée densément poilu, se compose d'un gynophore long d'environ 2(3) mm, qui porte un ovaire ovoïde, mesurant environ 3(4) x 2(3) mm, avec un style glabre, latéral (perpendiculaire à l'axe principal de l'ovaire), long d'environ 1 mm, portant un stigmate ponctuel.
-Le fruit est une gousse peu strigueuse, de couleur orange, ovoïde, mesurant 2,5-3 x 1,5-2 cm de diamètre, et portée par un stipe strigueux long de 3-5 mm. Il contient des graines noires entourées d'un arille blanc[4],[2],[3].
+Le fruit est une gousse peu strigueuse, de couleur orange, ovoïde, mesurant 2,5-3 x 1,5-2 cm de diamètre, et portée par un stipe strigueux long de 3-5 mm. Il contient des graines noires entourées d'un arille blanc.
 </t>
         </is>
       </c>
@@ -594,9 +610,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia guianensis est une espèce endémique du plateau des Guyanes : son aire de répartition est restreinte au Venezuela (Amazonas), au Guyana, au Suriname, et à la Guyane[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia guianensis est une espèce endémique du plateau des Guyanes : son aire de répartition est restreinte au Venezuela (Amazonas), au Guyana, au Suriname, et à la Guyane.
 </t>
         </is>
       </c>
@@ -625,10 +643,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swartzia guianensis a une affinité pour le sous-étage des forêts sur sol sablonneux ou argilo-latéritiques, les forêts ripicoles, et les talus boisés, depuis les zones côtières jusqu'à 100–400 m d'altitude[4].
-Les oiseaux du genre Penelope consomment les fruits de Swartzia guianensis, d'où le nom de maduri food au Guyana[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swartzia guianensis a une affinité pour le sous-étage des forêts sur sol sablonneux ou argilo-latéritiques, les forêts ripicoles, et les talus boisés, depuis les zones côtières jusqu'à 100–400 m d'altitude.
+Les oiseaux du genre Penelope consomment les fruits de Swartzia guianensis, d'où le nom de maduri food au Guyana.
 </t>
         </is>
       </c>
@@ -657,10 +677,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Amérindiens Yekwana emploient l'écorce de Swartzia guianensis pour traiter les infections cutanées[4].
-Le bois dur de Swartzia guianensis est parfois utilisé pour réaliser les poteaux de maison et comme bois de chauffage[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amérindiens Yekwana emploient l'écorce de Swartzia guianensis pour traiter les infections cutanées.
+Le bois dur de Swartzia guianensis est parfois utilisé pour réaliser les poteaux de maison et comme bois de chauffage.
 </t>
         </is>
       </c>
@@ -689,9 +711,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Swartzia guianensis[6] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Swartzia guianensis : 
 « TOUNATEA Guianenſis. (Tabula 218.) 
 Arbor trunco viginti-quinque-pedali, &amp; ampliùs, in ſummitate ramoſo ; ramis undique ſparſis ; ramulis folioſis. Folia alterna, impari-pinnata. Foxiolis utrinque binis, ſeſſilibus, ſuboppoſitis, coſtæ alatæ adnexis ; impari majore ; omnibus ovatis, acutis, glabris, integerrimis. Flores ſpicati, ſupra ramos &amp; ramulos ; ſingulus flos, ad baſim squamulla munitur. 
 Florebat, fructumque ferebat Novembri. 
